--- a/inst/extdata/rctls_stat_dict.xlsx
+++ b/inst/extdata/rctls_stat_dict.xlsx
@@ -35,72 +35,9 @@
     <t>child_id</t>
   </si>
   <si>
-    <t>date_day0</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>malaria_res_day0</t>
-  </si>
-  <si>
-    <t>sx_convulsions_day0</t>
-  </si>
-  <si>
-    <t>sx_lethargy_day0</t>
-  </si>
-  <si>
-    <t>sx_unable_feed_day0</t>
-  </si>
-  <si>
-    <t>sx_cough_day0</t>
-  </si>
-  <si>
-    <t>sx_cough_onset_day0</t>
-  </si>
-  <si>
-    <t>sx_difficulty_breath_day0</t>
-  </si>
-  <si>
-    <t>sx_difficulty_breath_onset_day0</t>
-  </si>
-  <si>
-    <t>sx_diarrhoea_day0</t>
-  </si>
-  <si>
-    <t>sx_diarrhoea_onset_day0</t>
-  </si>
-  <si>
-    <t>sx_fever_day0</t>
-  </si>
-  <si>
-    <t>sx_fever_onset_day0</t>
-  </si>
-  <si>
-    <t>spo2_meas1_day0</t>
-  </si>
-  <si>
-    <t>spo2_meas2_day0</t>
-  </si>
-  <si>
-    <t>spo2_meas3_day0</t>
-  </si>
-  <si>
-    <t>muac_day0</t>
-  </si>
-  <si>
-    <t>temp_day0</t>
-  </si>
-  <si>
-    <t>wt_day0</t>
-  </si>
-  <si>
-    <t>ht_day0</t>
-  </si>
-  <si>
-    <t>dx_day0</t>
-  </si>
-  <si>
     <t>mother_education</t>
   </si>
   <si>
@@ -113,45 +50,6 @@
     <t>mother_civ_status</t>
   </si>
   <si>
-    <t>hiv_day0</t>
-  </si>
-  <si>
-    <t>mother_hiv_day0</t>
-  </si>
-  <si>
-    <t>tb_day0</t>
-  </si>
-  <si>
-    <t>hb_res_day0</t>
-  </si>
-  <si>
-    <t>bg_res_day0</t>
-  </si>
-  <si>
-    <t>urine_res_day0</t>
-  </si>
-  <si>
-    <t>stool_res_day0</t>
-  </si>
-  <si>
-    <t>hiv_res_day0</t>
-  </si>
-  <si>
-    <t>tb_res_day0</t>
-  </si>
-  <si>
-    <t>wfh_day0</t>
-  </si>
-  <si>
-    <t>wfa_day0</t>
-  </si>
-  <si>
-    <t>tests_day0</t>
-  </si>
-  <si>
-    <t>tests_oth_day0</t>
-  </si>
-  <si>
     <t>p1) Is the HIV status of the child recorded?</t>
   </si>
   <si>
@@ -323,9 +221,6 @@
     <t>birth_location</t>
   </si>
   <si>
-    <t>referral_note_day0</t>
-  </si>
-  <si>
     <t>k1) Has ${child_fname} been referred by the healthcare provider?</t>
   </si>
   <si>
@@ -350,42 +245,24 @@
     <t>k6) Did the healthcare provider give you a medication prescription for ${child_fname}?</t>
   </si>
   <si>
-    <t>referral_hf_day0</t>
-  </si>
-  <si>
     <t>k9.a) Please specify.</t>
   </si>
   <si>
     <t>l2) What type of visit was it according to the registry of the  healthcare provider?</t>
   </si>
   <si>
-    <t>dx_oth_day0</t>
-  </si>
-  <si>
     <t>l1) What are the discharge diagnoses for ${child_fname}?</t>
   </si>
   <si>
     <t>l1.a) Please specify</t>
   </si>
   <si>
-    <t>urg_referral_hf_day0</t>
-  </si>
-  <si>
     <t>l3) Was a referral advice recorded for ${child_fname}?</t>
   </si>
   <si>
     <t>l4) What type of referral was it?</t>
   </si>
   <si>
-    <t>fu_advice_day0</t>
-  </si>
-  <si>
-    <t>inj_day0</t>
-  </si>
-  <si>
-    <t>consult_type_day0</t>
-  </si>
-  <si>
     <t>l8) Please select all the antibiotics / antimalarials that are listed in the facility registry</t>
   </si>
   <si>
@@ -401,18 +278,6 @@
     <t>m7) SpO2 measure #3</t>
   </si>
   <si>
-    <t>rr_y_day0</t>
-  </si>
-  <si>
-    <t>rr_day0</t>
-  </si>
-  <si>
-    <t>malaria_ttype_day0</t>
-  </si>
-  <si>
-    <t>hb_ttype_day0</t>
-  </si>
-  <si>
     <t>o6) Blood glucose value (in mg/dL)</t>
   </si>
   <si>
@@ -446,84 +311,12 @@
     <t>range [34 43] step 0.5</t>
   </si>
   <si>
-    <t>tb_ppx_day0</t>
-  </si>
-  <si>
-    <t>scd_day0</t>
-  </si>
-  <si>
-    <t>pwd_day0</t>
-  </si>
-  <si>
-    <t>pwd_type_day0</t>
-  </si>
-  <si>
-    <t>pwd_othtype_day0</t>
-  </si>
-  <si>
-    <t>temp_meas_day0</t>
-  </si>
-  <si>
-    <t>muac_meas_day0</t>
-  </si>
-  <si>
-    <t>wt_meas_day0</t>
-  </si>
-  <si>
-    <t>ht_meas_day0</t>
-  </si>
-  <si>
-    <t>wfh_meas_day0</t>
-  </si>
-  <si>
-    <t>wfa_meas_day0</t>
-  </si>
-  <si>
-    <t>spo2_rpt2_day0</t>
-  </si>
-  <si>
-    <t>spo2_rept3_day0</t>
-  </si>
-  <si>
-    <t>spo2_day0</t>
-  </si>
-  <si>
-    <t>referral_cg_day0</t>
-  </si>
-  <si>
-    <t>inj_type_day0</t>
-  </si>
-  <si>
-    <t>inj_othtype_day0</t>
-  </si>
-  <si>
-    <t>rx_cg_day0</t>
-  </si>
-  <si>
-    <t>rx_type_day0</t>
-  </si>
-  <si>
-    <t>rx_othtype_day0</t>
-  </si>
-  <si>
-    <t>rx_othtype_hf_day0</t>
-  </si>
-  <si>
-    <t>rx_type_hf_day0</t>
-  </si>
-  <si>
     <t>l6) Was a follow-up visit advice recorded for ${child_fname}?</t>
   </si>
   <si>
     <t>l7) In how many days should the follow-up visit be conducted?</t>
   </si>
   <si>
-    <t>fu_advice_hf_day0</t>
-  </si>
-  <si>
-    <t>fu_days_day0</t>
-  </si>
-  <si>
     <t>medicines.csv</t>
   </si>
   <si>
@@ -668,9 +461,6 @@
     <t>water_source_time</t>
   </si>
   <si>
-    <t>sick_duration_day0</t>
-  </si>
-  <si>
     <t>living_with_cg</t>
   </si>
   <si>
@@ -776,12 +566,6 @@
     <t>(automated calculation from location)</t>
   </si>
   <si>
-    <t>journey_day0</t>
-  </si>
-  <si>
-    <t>prev_chf_day0</t>
-  </si>
-  <si>
     <t>i4.a) Please specify.</t>
   </si>
   <si>
@@ -794,12 +578,6 @@
     <t>i8) You mentioned that you sought care / treatment / advice elsewhere than in a health facility. What did you do exactly?</t>
   </si>
   <si>
-    <t>prev_referral_day0</t>
-  </si>
-  <si>
-    <t>prev_hosp_day0</t>
-  </si>
-  <si>
     <t>i8.a) Please specify.</t>
   </si>
   <si>
@@ -842,42 +620,6 @@
     <t>TREATMENT</t>
   </si>
   <si>
-    <t>cost_day0</t>
-  </si>
-  <si>
-    <t>trans_type_day0</t>
-  </si>
-  <si>
-    <t>trans_oth_day0</t>
-  </si>
-  <si>
-    <t>trans_time_day0</t>
-  </si>
-  <si>
-    <t>prev_rx_day0</t>
-  </si>
-  <si>
-    <t>prev_rxoth_day0</t>
-  </si>
-  <si>
-    <t>prev_nonhf_day0</t>
-  </si>
-  <si>
-    <t>prev_nonhfoth_day0</t>
-  </si>
-  <si>
-    <t>prev_hf_typeoth_day0</t>
-  </si>
-  <si>
-    <t>prev_hf_type_day0</t>
-  </si>
-  <si>
-    <t>sx_var_day0</t>
-  </si>
-  <si>
-    <t>sx_varoth_day0</t>
-  </si>
-  <si>
     <t>h8) Cough</t>
   </si>
   <si>
@@ -923,15 +665,6 @@
     <t>h7) Completely unable to eat or drink</t>
   </si>
   <si>
-    <t>sx_vomit_day0</t>
-  </si>
-  <si>
-    <t>sx_vomit_evthing_day0</t>
-  </si>
-  <si>
-    <t>sx_less_feed_day0</t>
-  </si>
-  <si>
     <t>h1) How long has the child been unwell? (in days)</t>
   </si>
   <si>
@@ -954,6 +687,273 @@
   </si>
   <si>
     <t>answer_name</t>
+  </si>
+  <si>
+    <t>sick_duration</t>
+  </si>
+  <si>
+    <t>sx_convulsions</t>
+  </si>
+  <si>
+    <t>sx_lethargy</t>
+  </si>
+  <si>
+    <t>sx_vomit</t>
+  </si>
+  <si>
+    <t>sx_vomit_evthing</t>
+  </si>
+  <si>
+    <t>sx_less_feed</t>
+  </si>
+  <si>
+    <t>sx_unable_feed</t>
+  </si>
+  <si>
+    <t>sx_cough</t>
+  </si>
+  <si>
+    <t>sx_cough_onset</t>
+  </si>
+  <si>
+    <t>sx_difficulty_breath</t>
+  </si>
+  <si>
+    <t>sx_difficulty_breath_onset</t>
+  </si>
+  <si>
+    <t>sx_diarrhoea</t>
+  </si>
+  <si>
+    <t>sx_diarrhoea_onset</t>
+  </si>
+  <si>
+    <t>sx_fever</t>
+  </si>
+  <si>
+    <t>sx_fever_onset</t>
+  </si>
+  <si>
+    <t>sx_var</t>
+  </si>
+  <si>
+    <t>sx_varoth</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>prev_chf</t>
+  </si>
+  <si>
+    <t>prev_hf_type</t>
+  </si>
+  <si>
+    <t>prev_hf_typeoth</t>
+  </si>
+  <si>
+    <t>prev_referral</t>
+  </si>
+  <si>
+    <t>prev_hosp</t>
+  </si>
+  <si>
+    <t>prev_nonhf</t>
+  </si>
+  <si>
+    <t>prev_nonhfoth</t>
+  </si>
+  <si>
+    <t>prev_rx</t>
+  </si>
+  <si>
+    <t>prev_rxoth</t>
+  </si>
+  <si>
+    <t>trans_type</t>
+  </si>
+  <si>
+    <t>trans_oth</t>
+  </si>
+  <si>
+    <t>trans_time</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>referral_cg</t>
+  </si>
+  <si>
+    <t>referral_note</t>
+  </si>
+  <si>
+    <t>fu_advice</t>
+  </si>
+  <si>
+    <t>inj</t>
+  </si>
+  <si>
+    <t>inj_type</t>
+  </si>
+  <si>
+    <t>inj_othtype</t>
+  </si>
+  <si>
+    <t>rx_cg</t>
+  </si>
+  <si>
+    <t>rx_type</t>
+  </si>
+  <si>
+    <t>rx_othtype</t>
+  </si>
+  <si>
+    <t>consult_type</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dx_oth</t>
+  </si>
+  <si>
+    <t>referral_hf</t>
+  </si>
+  <si>
+    <t>urg_referral_hf</t>
+  </si>
+  <si>
+    <t>fu_advice_hf</t>
+  </si>
+  <si>
+    <t>fu_days</t>
+  </si>
+  <si>
+    <t>rx_type_hf</t>
+  </si>
+  <si>
+    <t>rx_othtype_hf</t>
+  </si>
+  <si>
+    <t>rr_y</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>spo2</t>
+  </si>
+  <si>
+    <t>spo2_meas1</t>
+  </si>
+  <si>
+    <t>spo2_rpt2</t>
+  </si>
+  <si>
+    <t>spo2_meas2</t>
+  </si>
+  <si>
+    <t>spo2_rept3</t>
+  </si>
+  <si>
+    <t>spo2_meas3</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>temp_meas</t>
+  </si>
+  <si>
+    <t>muac</t>
+  </si>
+  <si>
+    <t>muac_meas</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>wt_meas</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ht_meas</t>
+  </si>
+  <si>
+    <t>wfh</t>
+  </si>
+  <si>
+    <t>wfh_meas</t>
+  </si>
+  <si>
+    <t>wfa</t>
+  </si>
+  <si>
+    <t>wfa_meas</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>tests_oth</t>
+  </si>
+  <si>
+    <t>malaria_ttype</t>
+  </si>
+  <si>
+    <t>malaria_res</t>
+  </si>
+  <si>
+    <t>hb_ttype</t>
+  </si>
+  <si>
+    <t>hb_res</t>
+  </si>
+  <si>
+    <t>bg_res</t>
+  </si>
+  <si>
+    <t>urine_res</t>
+  </si>
+  <si>
+    <t>stool_res</t>
+  </si>
+  <si>
+    <t>hiv_res</t>
+  </si>
+  <si>
+    <t>tb_res</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>mother_hiv</t>
+  </si>
+  <si>
+    <t>tb_ppx</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>scd</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>pwd_type</t>
+  </si>
+  <si>
+    <t>pwd_othtype</t>
+  </si>
+  <si>
+    <t>date_visit</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1324,24 +1324,24 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1349,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -1358,1388 +1358,1388 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>222</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>13</v>
+        <v>232</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>308</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>266</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>267</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>268</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>216</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>200</v>
+        <v>131</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>228</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>186</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>232</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>212</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>236</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>99</v>
+        <v>253</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>158</v>
+        <v>259</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>111</v>
+        <v>263</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>145</v>
+        <v>279</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>146</v>
+        <v>281</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>22</v>
+        <v>282</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>147</v>
+        <v>283</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>148</v>
+        <v>285</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>5</v>
+        <v>293</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>128</v>
+        <v>294</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>32</v>
+        <v>295</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>35</v>
+        <v>298</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>140</v>
+        <v>303</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>305</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
